--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr5_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr5_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29276036261541261</v>
+        <v>0.29274225186733338</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29252566282564046</v>
+        <v>0.29250758799098536</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.003538318542130903</v>
+        <v>-0.0035140448593851004</v>
       </c>
       <c r="E3" s="0">
-        <v>3.6900670553804983e-05</v>
+        <v>3.5326584093716963e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00067966125806789238</v>
+        <v>-0.00066015558207592614</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00049956697759803769</v>
+        <v>0.00049988994216002231</v>
       </c>
       <c r="H3" s="0">
-        <v>-3.729713934946934e-05</v>
+        <v>-3.6386518782310113e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0010893742448506915</v>
+        <v>-0.0010923731076776248</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>3.239054849779599e-06</v>
+        <v>3.2390195756626383e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29175435249166404</v>
+        <v>0.29156153844083182</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0010926837022995587</v>
+        <v>-0.001382812978494654</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>6.6533785410929851e-05</v>
+        <v>6.6371767707815646e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>2.5245841961608472e-05</v>
+        <v>2.5190818588198996e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>9.6328046758960802e-05</v>
+        <v>9.6140559908248845e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0014038017985983583</v>
+        <v>-0.001402460898146023</v>
       </c>
       <c r="J4" s="0">
-        <v>6.0420729326032917e-05</v>
+        <v>5.9092953741710421e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>-6.0483037262526462e-05</v>
+        <v>-6.0482474875112047e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29428915124730554</v>
+        <v>0.29426080244315872</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0041748103644497015</v>
+        <v>0.0045630010008605908</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0053151594523654566</v>
+        <v>-0.0053301109160312499</v>
       </c>
       <c r="E5" s="0">
-        <v>-8.2570673314838859e-07</v>
+        <v>6.5397367624651922e-07</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00051205079903370672</v>
+        <v>-0.00052057893485502515</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0011809650426398985</v>
+        <v>-0.0011817305155684176</v>
       </c>
       <c r="H5" s="0">
-        <v>-5.1703089616323297e-05</v>
+        <v>-5.2123884068082571e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0003628660555634038</v>
+        <v>-0.00036248549665453392</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00015588941136263079</v>
+        <v>-0.00015588972845836935</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.31896429619290201</v>
+        <v>0.31905150050067566</v>
       </c>
       <c r="C6" s="0">
-        <v>0.026652820074180926</v>
+        <v>0.026583263228862328</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00016096287801209481</v>
+        <v>-0.00016097790358777427</v>
       </c>
       <c r="F6" s="0">
-        <v>-4.4296403873204951e-05</v>
+        <v>-4.4146192946365815e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-7.1423956166619226e-05</v>
+        <v>-7.1770639724629456e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.002268646439540768</v>
+        <v>-0.0022757391783104642</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0021262291402277533</v>
+        <v>-0.0021262305811587945</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.31746915440832163</v>
+        <v>0.31754139480399807</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0017749222782340321</v>
+        <v>-0.001813426596032346</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00032842018723682067</v>
+        <v>-0.00032355386139361363</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0014702120860912637</v>
+        <v>-0.0014746742468685272</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0007829404103768295</v>
+        <v>0.00078453919528978576</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00017133464854261727</v>
+        <v>0.00017096731347514762</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.0011796693500350508</v>
+        <v>-0.0011796690648845365</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.27179999642202529</v>
+        <v>0.27189410750104442</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.040494781536845645</v>
+        <v>-0.040302096336972446</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>5.4232905222501489e-05</v>
+        <v>5.4282621489518804e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00045339713280955651</v>
+        <v>-0.00045333674438916547</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>3.7741776098738305e-05</v>
+        <v>3.7756818756590117e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0016748774593050135</v>
+        <v>0.0016770117950774036</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.00011209564004011074</v>
+        <v>-0.00011208916280497361</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.26399095310968568</v>
+        <v>0.26407735542389971</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.00058189448463543433</v>
+        <v>0.0006047233673677206</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0024240930721316162</v>
+        <v>-0.0024311888866725313</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.006001962061471874</v>
+        <v>-0.0060083298392463865</v>
       </c>
       <c r="G9" s="0">
-        <v>0.00077740791986753396</v>
+        <v>0.00077294215961939939</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0001611481605295686</v>
+        <v>-0.00016016261892130829</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00049149712421697473</v>
+        <v>-0.00049121322006091871</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-1.9116096497850954e-05</v>
+        <v>-1.9115905987576731e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.35196449392269563</v>
+        <v>0.35321937438698242</v>
       </c>
       <c r="C10" s="0">
-        <v>0.073762879857320746</v>
+        <v>0.073928888108657997</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-1.4544071533110397e-05</v>
+        <v>-1.4657906929041119e-05</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00036080215469820007</v>
+        <v>-0.00036043892303250626</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-5.9323153591331352e-06</v>
+        <v>-5.9425292918985265e-06</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.00052622735092029531</v>
+        <v>-0.00052027981559568215</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0022600626192481482</v>
+        <v>-0.0022613311529176981</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0021471050371703604</v>
+        <v>0.0021471067489824414</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.34430412879239464</v>
+        <v>0.34550359785410567</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.011761315267752943</v>
+        <v>-0.011734236036316769</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0013202697294357052</v>
+        <v>0.0013217972532459344</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0015192029253315133</v>
+        <v>0.0014838154244163674</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0013345440876102426</v>
+        <v>0.0013375142122967398</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00024783742790138386</v>
+        <v>0.00024630087506194686</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.0042773038179963309</v>
+        <v>-0.0042937141760055718</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0045527244238693365</v>
+        <v>0.0045527243814054708</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.16304185609794236</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.048246572967269252</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>9.9733070870745703e-05</v>
+      </c>
+      <c r="F12" s="0">
+        <v>6.8780163400907228e-06</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>6.8315401009552564e-07</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.00028509358276941854</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.0075302770571035182</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr5_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr5_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29274225186733338</v>
+        <v>0.29277807729809902</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29250758799098536</v>
+        <v>0.29253749180680189</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0035140448593851004</v>
+        <v>-0.0035531120847662268</v>
       </c>
       <c r="E3" s="0">
-        <v>3.5326584093716963e-05</v>
+        <v>3.6066864348129742e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00066015558207592614</v>
+        <v>-0.00067460575065156857</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00049988994216002231</v>
+        <v>0.00050103917116825708</v>
       </c>
       <c r="H3" s="0">
-        <v>-3.6386518782310113e-05</v>
+        <v>-3.7124812902292354e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0010923731076776248</v>
+        <v>-0.0010965557678510899</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>3.2390195756626383e-06</v>
+        <v>3.2390400546145059e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29156153844083182</v>
+        <v>0.29155170958130217</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.001382812978494654</v>
+        <v>-0.0012230752761467558</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>6.6371767707815646e-05</v>
+        <v>6.6403282224808161e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>2.5190818588198996e-05</v>
+        <v>2.429264575910252e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>9.6140559908248845e-05</v>
+        <v>9.4716764051665705e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.001402460898146023</v>
+        <v>-0.0014039757980891978</v>
       </c>
       <c r="J4" s="0">
-        <v>5.9092953741710421e-05</v>
+        <v>5.720183375164571e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>-6.0482474875112047e-05</v>
+        <v>-6.0485528637244101e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29426080244315872</v>
+        <v>0.29409460853964475</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0045630010008605908</v>
+        <v>0.004204912348531392</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0053301109160312499</v>
+        <v>-0.0053212867372187007</v>
       </c>
       <c r="E5" s="0">
-        <v>6.5397367624651922e-07</v>
+        <v>-2.4206623252842198e-06</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00052057893485502515</v>
+        <v>-0.00051433601169721091</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0011817305155684176</v>
+        <v>-0.0011875300038232373</v>
       </c>
       <c r="H5" s="0">
-        <v>-5.2123884068082571e-05</v>
+        <v>-5.2027856320950287e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00036248549665453392</v>
+        <v>-0.00036210833972362123</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00015588972845836935</v>
+        <v>-0.00015588820146261728</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.31905150050067566</v>
+        <v>0.31935618254930953</v>
       </c>
       <c r="C6" s="0">
-        <v>0.026583263228862328</v>
+        <v>0.026948734731795161</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00016097790358777427</v>
+        <v>-0.00016099049392074799</v>
       </c>
       <c r="F6" s="0">
-        <v>-4.4146192946365815e-05</v>
+        <v>-4.3933862352624159e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-7.1770639724629456e-05</v>
+        <v>-7.1603968435820251e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0022757391783104642</v>
+        <v>-0.00227513126804223</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0021262305811587945</v>
+        <v>-0.0021262364610999951</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.31754139480399807</v>
+        <v>0.31784563184974646</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.001813426596032346</v>
+        <v>-0.0018205643497482802</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00032355386139361363</v>
+        <v>-0.00031490760632623939</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0014746742468685272</v>
+        <v>-0.0014645741245622979</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00078453919528978576</v>
+        <v>0.00078748960245826139</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00017096731347514762</v>
+        <v>0.00017053131546322124</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.0011796690648845365</v>
+        <v>-0.0011796691664991421</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.27189410750104442</v>
+        <v>0.27088268621608164</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.040302096336972446</v>
+        <v>-0.040939906284586401</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>5.4282621489518804e-05</v>
+        <v>5.4404897586716673e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00045333674438916547</v>
+        <v>-0.00045322233054743169</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>3.7756818756590117e-05</v>
+        <v>3.7890741279703315e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0016770117950774036</v>
+        <v>0.0016800394597489296</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.00011208916280497361</v>
+        <v>-0.00011208503819304383</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.26407735542389971</v>
+        <v>0.26314154453191813</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0006047233673677206</v>
+        <v>0.00058131043735768417</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0024311888866725313</v>
+        <v>-0.0024396443059172459</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0060083298392463865</v>
+        <v>-0.0060134846436292215</v>
       </c>
       <c r="G9" s="0">
-        <v>0.00077294215961939939</v>
+        <v>0.00077801433623086546</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00016016261892130829</v>
+        <v>-0.00015958735324719708</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00049121322006091871</v>
+        <v>-0.00049066690185016861</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-1.9115905987576731e-05</v>
+        <v>-1.911814246008392e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.35321937438698242</v>
+        <v>0.35285598477230357</v>
       </c>
       <c r="C10" s="0">
-        <v>0.073928888108657997</v>
+        <v>0.074403430194399878</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-1.4657906929041119e-05</v>
+        <v>-1.4556071196324275e-05</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00036043892303250626</v>
+        <v>-0.00036356952499769419</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-5.9425292918985265e-06</v>
+        <v>-6.0921976476427713e-06</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.00052027981559568215</v>
+        <v>-0.00052628199055033162</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0022613311529176981</v>
+        <v>-0.002221098057548112</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0021471067489824414</v>
+        <v>0.0021471012646493981</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.34550359785410567</v>
+        <v>0.34495026466354706</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.011734236036316769</v>
+        <v>-0.01197792358856681</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0013217972532459344</v>
+        <v>0.0013226155029842576</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0014838154244163674</v>
+        <v>0.0014300333625160205</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0013375142122967398</v>
+        <v>0.0013452869146274697</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00024630087506194686</v>
+        <v>0.00024329466136777098</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.0042937141760055718</v>
+        <v>-0.0043182911554531652</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0045527243814054708</v>
+        <v>0.0045527263057814071</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.16304185609794236</v>
+        <v>0.18869967954960312</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.048246572967269252</v>
+        <v>-0.05993296941558706</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>9.9733070870745703e-05</v>
+        <v>0.00011196349444234546</v>
       </c>
       <c r="F12" s="0">
-        <v>6.8780163400907228e-06</v>
+        <v>0.0025151302061853075</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>6.8315401009552564e-07</v>
+        <v>0.00085579123942481825</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.00028509358276941854</v>
+        <v>0.0075394780692081892</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.0075302770571035182</v>
+        <v>-0.0076172323629122296</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.10088951656111231</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.060610691451007802</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.0018848372555137836</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.0052283022950276765</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.0010472472400930289</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00053839209174448457</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.00018529083415821004</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>-0.005300470721815248</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.13918179059300567</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.13508580349880345</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>6.6322084276456114e-05</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.00045216623753110128</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.00020384862255406138</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.022418526078109943</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>1.5960704362563694e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr5_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr5_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.29277807729809902</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.29253749180680189</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.29155170958130217</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.29409460853964475</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.31935618254930953</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.31784563184974646</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.27088268621608164</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.26314154453191813</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.35285598477230357</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.34495026466354706</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.18869967954960312</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.10088951656111231</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.13918179059300567</v>
+        <v>0.22620652099188227</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.13508580349880345</v>
+        <v>-0.1109703112840284</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>6.6322084276456114e-05</v>
+        <v>2.5114575611053973e-05</v>
       </c>
       <c r="F14" s="0">
-        <v>0.00045216623753110128</v>
+        <v>9.6298041868332909e-06</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0.00020384862255406138</v>
+        <v>-0.0018833791334526319</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.022418526078109943</v>
+        <v>-0.0023757771511313131</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>1.5960704362563694e-05</v>
+        <v>-0.0060637719106882426</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.051387759346396167</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.10380994464556755</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.0029675337165811742</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.0035666226928163149</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.010355724472909465</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.0046757531225155857</v>
       </c>
     </row>
   </sheetData>
